--- a/src/main/resources/TestExcel.xlsx
+++ b/src/main/resources/TestExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loaner/Applications/myProject/LearnSelenium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loaner/Applications/myProject/LearnSelenium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -76,8 +76,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,19 +399,19 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
